--- a/listQr.xlsx
+++ b/listQr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,66 @@
         <v>6200</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ID2025368498627_A01.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>00020101021126690021ID.CO.BANKMANDIRI.WWW01189360000801715155310211717151553170303URE51440014ID.CO.QRIS.WWW0215ID20253684986270303URE5204939953033605802ID5923KEMENHUB BMS REGULER 446015JAKARTA SELATAN61051285062070703A01630417E7</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ID2025368498767_A01.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>00020101021126690021ID.CO.BANKMANDIRI.WWW01189360000801715156780211717151567840303URE51440014ID.CO.QRIS.WWW0215ID20253684987670303URE5204939953033605802ID5922KEMENHUB BMS KHUSUS 036015JAKARTA SELATAN61051285062070703A01630435D8</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ID2025368499062_A01.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>00020101021126690021ID.CO.BANKMANDIRI.WWW01189360000801715159760211717151597690303URE51440014ID.CO.QRIS.WWW0215ID20253684990620303URE5204939953033605802ID5922KEMENHUB BMS KHUSUS 336015JAKARTA SELATAN61051285062070703A01630476B2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ID2025368499286_A01.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00020101021126690021ID.CO.BANKMANDIRI.WWW01189360000801715161990211717151619920303URE51440014ID.CO.QRIS.WWW0215ID20253684992860303URE5204939953033605802ID5922KEMENHUB BMS KHUSUS 556015JAKARTA SELATAN61051285062070703A0163042EDC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
